--- a/result/result.xlsx
+++ b/result/result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-2730" windowWidth="38640" windowHeight="21240" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1 (2)" sheetId="1" state="visible" r:id="rId1"/>
@@ -232,7 +232,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -299,17 +299,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -711,14 +705,14 @@
   <dimension ref="B2:T43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="12"/>
   <cols>
-    <col width="16.28515625" customWidth="1" style="23" min="3" max="3"/>
-    <col width="10" customWidth="1" style="23" min="4" max="4"/>
-    <col width="8.85546875" customWidth="1" style="23" min="5" max="10"/>
+    <col width="16.28515625" customWidth="1" style="22" min="3" max="3"/>
+    <col width="10" customWidth="1" style="22" min="4" max="4"/>
+    <col width="8.85546875" customWidth="1" style="22" min="5" max="10"/>
   </cols>
   <sheetData>
     <row r="2">
@@ -791,23 +785,30 @@
     </row>
     <row r="6">
       <c r="B6" s="10" t="n"/>
-      <c r="C6" s="24" t="inlineStr">
+      <c r="C6" s="23" t="inlineStr">
         <is>
           <t>テスト　太郎</t>
         </is>
       </c>
-      <c r="D6" s="24" t="n"/>
-      <c r="E6" s="24" t="inlineStr">
-        <is>
-          <t>テスト部</t>
-        </is>
-      </c>
-      <c r="F6" s="25" t="n"/>
-      <c r="G6" s="25" t="n"/>
-      <c r="H6" s="24" t="n"/>
-      <c r="I6" s="24" t="n"/>
-      <c r="J6" s="27" t="n"/>
-      <c r="K6" s="21" t="n"/>
+      <c r="D6" s="23" t="inlineStr">
+        <is>
+          <t>開発管理部</t>
+        </is>
+      </c>
+      <c r="E6" s="23" t="inlineStr">
+        <is>
+          <t>テスト課</t>
+        </is>
+      </c>
+      <c r="F6" s="24" t="inlineStr">
+        <is>
+          <t>13h</t>
+        </is>
+      </c>
+      <c r="G6" s="24" t="n"/>
+      <c r="H6" s="23" t="n"/>
+      <c r="I6" s="23" t="n"/>
+      <c r="J6" s="25" t="n"/>
       <c r="L6" s="21" t="inlineStr">
         <is>
           <t>条件</t>
@@ -822,22 +823,30 @@
     </row>
     <row r="7">
       <c r="B7" s="10" t="n"/>
-      <c r="C7" s="26" t="inlineStr">
+      <c r="C7" s="23" t="inlineStr">
         <is>
           <t>テスト　花子</t>
         </is>
       </c>
-      <c r="D7" s="26" t="n"/>
-      <c r="E7" s="26" t="inlineStr">
-        <is>
-          <t>テスト部</t>
-        </is>
-      </c>
-      <c r="F7" s="25" t="n"/>
-      <c r="G7" s="25" t="n"/>
-      <c r="H7" s="26" t="n"/>
-      <c r="I7" s="26" t="n"/>
-      <c r="J7" s="27" t="n"/>
+      <c r="D7" s="23" t="inlineStr">
+        <is>
+          <t>開発管理部</t>
+        </is>
+      </c>
+      <c r="E7" s="23" t="inlineStr">
+        <is>
+          <t>テスト課</t>
+        </is>
+      </c>
+      <c r="F7" s="24" t="inlineStr">
+        <is>
+          <t>63h</t>
+        </is>
+      </c>
+      <c r="G7" s="24" t="n"/>
+      <c r="H7" s="23" t="n"/>
+      <c r="I7" s="23" t="n"/>
+      <c r="J7" s="25" t="n"/>
       <c r="M7" s="21" t="inlineStr">
         <is>
           <t>月末に限度に到達しそう</t>
@@ -875,21 +884,9 @@
     </row>
     <row r="10">
       <c r="B10" s="10" t="n"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>開発管理課</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>174h</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>150h</t>
-        </is>
-      </c>
+      <c r="C10" s="21" t="n"/>
+      <c r="D10" s="21" t="n"/>
+      <c r="E10" s="21" t="n"/>
       <c r="L10" s="21" t="inlineStr">
         <is>
           <t>条件</t>
@@ -913,12 +910,10 @@
     </row>
     <row r="12">
       <c r="B12" s="10" t="n"/>
-      <c r="F12" s="21" t="inlineStr"/>
       <c r="T12" s="11" t="n"/>
     </row>
     <row r="13">
       <c r="B13" s="10" t="n"/>
-      <c r="F13" s="21" t="inlineStr"/>
       <c r="T13" s="11" t="n"/>
     </row>
     <row r="14">
@@ -1031,11 +1026,7 @@
       <c r="N18" s="2" t="n"/>
       <c r="O18" s="2" t="n"/>
       <c r="P18" s="2" t="n"/>
-      <c r="Q18" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q18" s="2" t="n"/>
       <c r="T18" s="11" t="n"/>
     </row>
     <row r="19">
@@ -1058,11 +1049,7 @@
       <c r="N19" s="2" t="n"/>
       <c r="O19" s="2" t="n"/>
       <c r="P19" s="2" t="n"/>
-      <c r="Q19" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q19" s="2" t="n"/>
       <c r="T19" s="11" t="n"/>
     </row>
     <row r="20">
@@ -1085,9 +1072,7 @@
       <c r="N20" s="5" t="n"/>
       <c r="O20" s="5" t="n"/>
       <c r="P20" s="5" t="n"/>
-      <c r="Q20" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q20" s="4" t="n"/>
       <c r="T20" s="11" t="n"/>
     </row>
     <row r="21">
@@ -1114,11 +1099,7 @@
       <c r="N21" s="2" t="n"/>
       <c r="O21" s="2" t="n"/>
       <c r="P21" s="2" t="n"/>
-      <c r="Q21" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q21" s="2" t="n"/>
       <c r="T21" s="11" t="n"/>
     </row>
     <row r="22">
@@ -1136,7 +1117,7 @@
       <c r="I22" s="2" t="n"/>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>433:45</t>
+          <t>509:45</t>
         </is>
       </c>
       <c r="K22" s="2" t="n"/>
@@ -1145,11 +1126,7 @@
       <c r="N22" s="2" t="n"/>
       <c r="O22" s="2" t="n"/>
       <c r="P22" s="2" t="n"/>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q22" s="2" t="n"/>
       <c r="T22" s="11" t="n"/>
     </row>
     <row r="23">
@@ -1172,9 +1149,7 @@
       <c r="N23" s="5" t="n"/>
       <c r="O23" s="5" t="n"/>
       <c r="P23" s="5" t="n"/>
-      <c r="Q23" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q23" s="4" t="n"/>
       <c r="T23" s="11" t="n"/>
     </row>
     <row r="24">
@@ -1201,11 +1176,7 @@
       <c r="N24" s="2" t="n"/>
       <c r="O24" s="2" t="n"/>
       <c r="P24" s="2" t="n"/>
-      <c r="Q24" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q24" s="2" t="n"/>
       <c r="T24" s="11" t="n"/>
     </row>
     <row r="25">
@@ -1228,11 +1199,7 @@
       <c r="N25" s="2" t="n"/>
       <c r="O25" s="2" t="n"/>
       <c r="P25" s="2" t="n"/>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q25" s="2" t="n"/>
       <c r="T25" s="11" t="n"/>
     </row>
     <row r="26">
@@ -1255,9 +1222,7 @@
       <c r="N26" s="5" t="n"/>
       <c r="O26" s="5" t="n"/>
       <c r="P26" s="5" t="n"/>
-      <c r="Q26" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q26" s="4" t="n"/>
       <c r="T26" s="11" t="n"/>
     </row>
     <row r="27">
@@ -1284,11 +1249,7 @@
       <c r="N27" s="2" t="n"/>
       <c r="O27" s="2" t="n"/>
       <c r="P27" s="2" t="n"/>
-      <c r="Q27" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q27" s="2" t="n"/>
       <c r="T27" s="11" t="n"/>
     </row>
     <row r="28">
@@ -1311,11 +1272,7 @@
       <c r="N28" s="2" t="n"/>
       <c r="O28" s="2" t="n"/>
       <c r="P28" s="2" t="n"/>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q28" s="2" t="n"/>
       <c r="T28" s="11" t="n"/>
     </row>
     <row r="29">
@@ -1338,9 +1295,7 @@
       <c r="N29" s="5" t="n"/>
       <c r="O29" s="5" t="n"/>
       <c r="P29" s="5" t="n"/>
-      <c r="Q29" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q29" s="4" t="n"/>
       <c r="T29" s="11" t="n"/>
     </row>
     <row r="30">
@@ -1367,11 +1322,7 @@
       <c r="N30" s="2" t="n"/>
       <c r="O30" s="2" t="n"/>
       <c r="P30" s="2" t="n"/>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q30" s="2" t="n"/>
       <c r="T30" s="11" t="n"/>
     </row>
     <row r="31">
@@ -1394,11 +1345,7 @@
       <c r="N31" s="2" t="n"/>
       <c r="O31" s="2" t="n"/>
       <c r="P31" s="2" t="n"/>
-      <c r="Q31" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q31" s="2" t="n"/>
       <c r="T31" s="11" t="n"/>
     </row>
     <row r="32">
@@ -1421,9 +1368,7 @@
       <c r="N32" s="5" t="n"/>
       <c r="O32" s="5" t="n"/>
       <c r="P32" s="5" t="n"/>
-      <c r="Q32" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q32" s="4" t="n"/>
       <c r="T32" s="11" t="n"/>
     </row>
     <row r="33">
@@ -1450,11 +1395,7 @@
       <c r="N33" s="2" t="n"/>
       <c r="O33" s="2" t="n"/>
       <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q33" s="2" t="n"/>
       <c r="T33" s="11" t="n"/>
     </row>
     <row r="34">
@@ -1477,11 +1418,7 @@
       <c r="N34" s="2" t="n"/>
       <c r="O34" s="2" t="n"/>
       <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q34" s="2" t="n"/>
       <c r="T34" s="11" t="n"/>
     </row>
     <row r="35">
@@ -1504,9 +1441,7 @@
       <c r="N35" s="5" t="n"/>
       <c r="O35" s="5" t="n"/>
       <c r="P35" s="5" t="n"/>
-      <c r="Q35" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q35" s="4" t="n"/>
       <c r="T35" s="11" t="n"/>
     </row>
     <row r="36">
@@ -1533,11 +1468,7 @@
       <c r="N36" s="2" t="n"/>
       <c r="O36" s="2" t="n"/>
       <c r="P36" s="2" t="n"/>
-      <c r="Q36" s="2" t="inlineStr">
-        <is>
-          <t>8307h</t>
-        </is>
-      </c>
+      <c r="Q36" s="2" t="n"/>
       <c r="T36" s="11" t="n"/>
     </row>
     <row r="37">
@@ -1560,11 +1491,7 @@
       <c r="N37" s="2" t="n"/>
       <c r="O37" s="2" t="n"/>
       <c r="P37" s="2" t="n"/>
-      <c r="Q37" s="2" t="inlineStr">
-        <is>
-          <t>2429h</t>
-        </is>
-      </c>
+      <c r="Q37" s="2" t="n"/>
       <c r="T37" s="11" t="n"/>
     </row>
     <row r="38">
@@ -1587,9 +1514,7 @@
       <c r="N38" s="5" t="n"/>
       <c r="O38" s="5" t="n"/>
       <c r="P38" s="5" t="n"/>
-      <c r="Q38" s="4" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="Q38" s="4" t="n"/>
       <c r="T38" s="11" t="n"/>
     </row>
     <row r="39">
